--- a/Stocks/BOSCHLTD.xlsx
+++ b/Stocks/BOSCHLTD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>23012.666666666668</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>24648.796082616529</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>24088.268681345435</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>74.720048623338869</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>150</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>430</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.34883720930232559</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>24131.81021828415</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>171.16277565357814</v>
       </c>
       <c r="Y67">
         <v>107.77155816064145</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>21718.15</v>
+      </c>
+      <c r="D83">
+        <v>21999</v>
+      </c>
+      <c r="E83">
+        <v>21400</v>
+      </c>
+      <c r="F83">
+        <v>21768</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>21722.333333333332</v>
+      </c>
+      <c r="H83">
+        <v>21814.317291962929</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>22421.324409360637</v>
+      </c>
+      <c r="K83">
+        <v>21884.38916944218</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>18.369040139347952</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>368</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>599</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.61435726210350583</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>22351.305563587026</v>
+      </c>
+      <c r="W83">
+        <v>22983.668307287382</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-632.36274370035608</v>
+      </c>
+      <c r="Y83">
+        <v>-466.53646282644172</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>21700</v>
+      </c>
+      <c r="D84">
+        <v>21900</v>
+      </c>
+      <c r="E84">
+        <v>21610.05</v>
+      </c>
+      <c r="F84">
+        <v>21750</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>21753.350000000002</v>
+      </c>
+      <c r="H84">
+        <v>21783.833645981467</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>22305.474540613828</v>
+      </c>
+      <c r="K84">
+        <v>21823.42490956614</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>17.823864433182077</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>139.95000000000073</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>289.95000000000073</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.48266942576306388</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>22258.797015342869</v>
+      </c>
+      <c r="W84">
+        <v>22892.285469710539</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-633.48845436767078</v>
+      </c>
+      <c r="Y84">
+        <v>-499.92686113468756</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>21920</v>
+      </c>
+      <c r="D85">
+        <v>23211.9</v>
+      </c>
+      <c r="E85">
+        <v>21720</v>
+      </c>
+      <c r="F85">
+        <v>23000</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>22643.966666666664</v>
+      </c>
+      <c r="H85">
+        <v>22213.900156324067</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>22506.902420477421</v>
+      </c>
+      <c r="K85">
+        <v>21800.441596329219</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>77.022066651635924</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1280</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>1491.9000000000015</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.85796635163214607</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>22372.828243751657</v>
+      </c>
+      <c r="W85">
+        <v>22900.264323806055</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-527.43608005439819</v>
+      </c>
+      <c r="Y85">
+        <v>-505.42870491862971</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>22620</v>
+      </c>
+      <c r="D86">
+        <v>22700.05</v>
+      </c>
+      <c r="E86">
+        <v>21901</v>
+      </c>
+      <c r="F86">
+        <v>21913.8</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>22171.616666666669</v>
+      </c>
+      <c r="H86">
+        <v>22192.758411495368</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>22549.824104815772</v>
+      </c>
+      <c r="K86">
+        <v>21822.787908256061</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>43.210648516529872</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>12.799999999999272</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>799.04999999999927</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>1.6019022589323927E-2</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>22302.208513943711</v>
+      </c>
+      <c r="W86">
+        <v>22827.192892413015</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-524.98437846930392</v>
+      </c>
+      <c r="Y86">
+        <v>-509.33983962876454</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>22140</v>
+      </c>
+      <c r="D87">
+        <v>22241.85</v>
+      </c>
+      <c r="E87">
+        <v>21963.8</v>
+      </c>
+      <c r="F87">
+        <v>22100</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>22101.883333333331</v>
+      </c>
+      <c r="H87">
+        <v>22147.320872414348</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>22481.385414856712</v>
+      </c>
+      <c r="K87">
+        <v>21854.123928643603</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>48.093256876205373</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>136.20000000000073</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>278.04999999999927</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.48983995684229847</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>22271.099511798526</v>
+      </c>
+      <c r="W87">
+        <v>22773.326752234272</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-502.22724043574635</v>
+      </c>
+      <c r="Y87">
+        <v>-507.91731979016089</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>22200</v>
+      </c>
+      <c r="D88">
+        <v>22530</v>
+      </c>
+      <c r="E88">
+        <v>22105</v>
+      </c>
+      <c r="F88">
+        <v>22480</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>22371.666666666668</v>
+      </c>
+      <c r="H88">
+        <v>22259.49376954051</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>22492.188655999664</v>
+      </c>
+      <c r="K88">
+        <v>21909.874166722802</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>57.430126133790353</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>375</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>425</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>22303.238048444906</v>
+      </c>
+      <c r="W88">
+        <v>22751.598844661363</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-448.36079621645695</v>
+      </c>
+      <c r="Y88">
+        <v>-496.00601507542012</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>22650</v>
+      </c>
+      <c r="D89">
+        <v>22650</v>
+      </c>
+      <c r="E89">
+        <v>22162.2</v>
+      </c>
+      <c r="F89">
+        <v>22222.9</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>22345.033333333336</v>
+      </c>
+      <c r="H89">
+        <v>22302.263551436925</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>22527.257843555293</v>
+      </c>
+      <c r="K89">
+        <v>21965.946574117734</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>49.847049460278541</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>60.700000000000728</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>487.79999999999927</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.1244362443624453</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>22290.878348684153</v>
+      </c>
+      <c r="W89">
+        <v>22712.435967279042</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-421.55761859488848</v>
+      </c>
+      <c r="Y89">
+        <v>-481.11633577931377</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>22180</v>
+      </c>
+      <c r="D90">
+        <v>22180</v>
+      </c>
+      <c r="E90">
+        <v>21500.1</v>
+      </c>
+      <c r="F90">
+        <v>21505.05</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>21728.383333333331</v>
+      </c>
+      <c r="H90">
+        <v>22015.323442385128</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>22450.089433876339</v>
+      </c>
+      <c r="K90">
+        <v>21862.42511320268</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>34.122253391403831</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.9500000000007276</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>679.90000000000146</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>7.2804824238869199E-3</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>22169.981679655823</v>
+      </c>
+      <c r="W90">
+        <v>22622.999969702818</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-453.01829004699539</v>
+      </c>
+      <c r="Y90">
+        <v>-475.49672663285008</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>21600</v>
+      </c>
+      <c r="D91">
+        <v>22148.7</v>
+      </c>
+      <c r="E91">
+        <v>21600</v>
+      </c>
+      <c r="F91">
+        <v>22039.8</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>21929.5</v>
+      </c>
+      <c r="H91">
+        <v>21972.411721192562</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>22383.114004126041</v>
+      </c>
+      <c r="K91">
+        <v>21804.108421379864</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>49.079863962360861</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>439.79999999999927</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>548.70000000000073</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.8015308911973732</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>22149.953728939541</v>
+      </c>
+      <c r="W91">
+        <v>22579.799971947054</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-429.84624300751238</v>
+      </c>
+      <c r="Y91">
+        <v>-466.36662990778257</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>22120</v>
+      </c>
+      <c r="D92">
+        <v>22180</v>
+      </c>
+      <c r="E92">
+        <v>21850.2</v>
+      </c>
+      <c r="F92">
+        <v>21890.05</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>21973.416666666668</v>
+      </c>
+      <c r="H92">
+        <v>21972.914193929617</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>22337.977558764698</v>
+      </c>
+      <c r="K92">
+        <v>21814.350994406563</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>45.466273760889266</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>39.849999999998545</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>329.79999999999927</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.12083080654941974</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>22109.968539871919</v>
+      </c>
+      <c r="W92">
+        <v>22528.707381432458</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-418.73884156053828</v>
+      </c>
+      <c r="Y92">
+        <v>-456.84107223833371</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>22030</v>
+      </c>
+      <c r="D93">
+        <v>22344.9</v>
+      </c>
+      <c r="E93">
+        <v>22000</v>
+      </c>
+      <c r="F93">
+        <v>22051.85</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>22132.25</v>
+      </c>
+      <c r="H93">
+        <v>22052.582096964808</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>22339.515879039209</v>
+      </c>
+      <c r="K93">
+        <v>21855.606328982882</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>50.398593688966422</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>51.849999999998545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>344.90000000000146</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.1503334299796994</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>22101.027226045469</v>
+      </c>
+      <c r="W93">
+        <v>22493.384612437461</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-392.35738639199189</v>
+      </c>
+      <c r="Y93">
+        <v>-443.94433506906535</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>22150</v>
+      </c>
+      <c r="D94">
+        <v>22239.4</v>
+      </c>
+      <c r="E94">
+        <v>21902</v>
+      </c>
+      <c r="F94">
+        <v>22053.75</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>22065.05</v>
+      </c>
+      <c r="H94">
+        <v>22058.816048482404</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>22317.267905919383</v>
+      </c>
+      <c r="K94">
+        <v>21865.916033653353</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>50.464357800848077</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>151.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>337.40000000000146</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.44976289270894887</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>22093.753806653858</v>
+      </c>
+      <c r="W94">
+        <v>22460.819085590243</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-367.06527893638486</v>
+      </c>
+      <c r="Y94">
+        <v>-428.56852384252926</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>22108</v>
+      </c>
+      <c r="D95">
+        <v>22195.7</v>
+      </c>
+      <c r="E95">
+        <v>21951</v>
+      </c>
+      <c r="F95">
+        <v>21980</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>22042.233333333334</v>
+      </c>
+      <c r="H95">
+        <v>22050.524690907871</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>22290.252815715077</v>
+      </c>
+      <c r="K95">
+        <v>21884.823581730387</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>47.414203132193364</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>244.70000000000073</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.11851246424192854</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>22076.253221014802</v>
+      </c>
+      <c r="W95">
+        <v>22425.202857028002</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-348.94963601319978</v>
+      </c>
+      <c r="Y95">
+        <v>-412.64474627666334</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>22012.400000000001</v>
+      </c>
+      <c r="D96">
+        <v>22102.05</v>
+      </c>
+      <c r="E96">
+        <v>21817.4</v>
+      </c>
+      <c r="F96">
+        <v>21900</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>21939.816666666666</v>
+      </c>
+      <c r="H96">
+        <v>21995.170678787268</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>22248.429967778393</v>
+      </c>
+      <c r="K96">
+        <v>21869.840563568079</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>43.822715523454043</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>82.599999999998545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>284.64999999999782</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.29018092394167988</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>22049.137340858677</v>
+      </c>
+      <c r="W96">
+        <v>22386.298941692596</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-337.16160083391878</v>
+      </c>
+      <c r="Y96">
+        <v>-397.54811718811442</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>21890.05</v>
+      </c>
+      <c r="D97">
+        <v>21950</v>
+      </c>
+      <c r="E97">
+        <v>21656.799999999999</v>
+      </c>
+      <c r="F97">
+        <v>21797</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>21801.266666666666</v>
+      </c>
+      <c r="H97">
+        <v>21898.218672726965</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>22182.112197160972</v>
+      </c>
+      <c r="K97">
+        <v>21822.498216108506</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>39.060969913515194</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>140.20000000000073</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>293.20000000000073</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.4781718963165088</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>22010.346980726572</v>
+      </c>
+      <c r="W97">
+        <v>22342.647168233885</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-332.30018750731324</v>
+      </c>
+      <c r="Y97">
+        <v>-384.4985312519542</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>21860</v>
+      </c>
+      <c r="D98">
+        <v>22139.95</v>
+      </c>
+      <c r="E98">
+        <v>21860</v>
+      </c>
+      <c r="F98">
+        <v>21890</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>21963.316666666666</v>
+      </c>
+      <c r="H98">
+        <v>21930.767669696816</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>22172.742820014089</v>
+      </c>
+      <c r="K98">
+        <v>21830.83194586217</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>45.717972177175355</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>279.95000000000073</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.10716199321307349</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>21991.83206061479</v>
+      </c>
+      <c r="W98">
+        <v>22309.117748364708</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-317.285687749918</v>
+      </c>
+      <c r="Y98">
+        <v>-371.05596255154694</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>21931</v>
+      </c>
+      <c r="D99">
+        <v>21999.95</v>
+      </c>
+      <c r="E99">
+        <v>21789</v>
+      </c>
+      <c r="F99">
+        <v>21830</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>21872.983333333334</v>
+      </c>
+      <c r="H99">
+        <v>21901.875501515075</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>22134.344415566513</v>
+      </c>
+      <c r="K99">
+        <v>21821.5359578928</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>42.016446225759687</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>210.95000000000073</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.19435885280872178</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>21966.934820520208</v>
+      </c>
+      <c r="W99">
+        <v>22273.627544782135</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-306.69272426192765</v>
+      </c>
+      <c r="Y99">
+        <v>-358.18331489362311</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>21921</v>
+      </c>
+      <c r="D100">
+        <v>21921</v>
+      </c>
+      <c r="E100">
+        <v>21745</v>
+      </c>
+      <c r="F100">
+        <v>21785</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>21817</v>
+      </c>
+      <c r="H100">
+        <v>21859.437750757537</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>22086.934545440621</v>
+      </c>
+      <c r="K100">
+        <v>21804.527967249956</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>39.052223185475192</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>176</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>21938.944848132483</v>
+      </c>
+      <c r="W100">
+        <v>22237.432911835309</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-298.48806370282546</v>
+      </c>
+      <c r="Y100">
+        <v>-346.24426465546355</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>21825</v>
+      </c>
+      <c r="D101">
+        <v>21875.35</v>
+      </c>
+      <c r="E101">
+        <v>21501</v>
+      </c>
+      <c r="F101">
+        <v>21501</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>21625.783333333333</v>
+      </c>
+      <c r="H101">
+        <v>21742.610542045433</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>22039.915757564926</v>
+      </c>
+      <c r="K101">
+        <v>21737.077307861076</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>25.088895215636107</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>374.34999999999854</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>21871.568717650563</v>
+      </c>
+      <c r="W101">
+        <v>22182.882325773433</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-311.31360812286948</v>
+      </c>
+      <c r="Y101">
+        <v>-339.25813334894474</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>21500</v>
+      </c>
+      <c r="D102">
+        <v>21690</v>
+      </c>
+      <c r="E102">
+        <v>21302</v>
+      </c>
+      <c r="F102">
+        <v>21420</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>21470.666666666668</v>
+      </c>
+      <c r="H102">
+        <v>21606.638604356049</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>21962.156700328276</v>
+      </c>
+      <c r="K102">
+        <v>21640.393461669726</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>22.252315013744251</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>118</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>388</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.30412371134020616</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>21802.096607242784</v>
+      </c>
+      <c r="W102">
+        <v>22126.372523864291</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-324.27591662150735</v>
+      </c>
+      <c r="Y102">
+        <v>-336.26169000345726</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>21452.05</v>
+      </c>
+      <c r="D103">
+        <v>21454.45</v>
+      </c>
+      <c r="E103">
+        <v>21011</v>
+      </c>
+      <c r="F103">
+        <v>21011</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>21158.816666666666</v>
+      </c>
+      <c r="H103">
+        <v>21382.727635511357</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>21849.332989144215</v>
+      </c>
+      <c r="K103">
+        <v>21500.528247965343</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>12.985624332754067</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>443.45000000000073</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>21680.389436897742</v>
+      </c>
+      <c r="W103">
+        <v>22043.752336911381</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-363.36290001363886</v>
+      </c>
+      <c r="Y103">
+        <v>-341.68193200549359</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>21403.9</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>21285.050000000003</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>21232.7</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>21180.400000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>21110</v>
+      </c>
+      <c r="D104">
+        <v>21525</v>
+      </c>
+      <c r="E104">
+        <v>21012</v>
+      </c>
+      <c r="F104">
+        <v>21500</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>21345.666666666668</v>
+      </c>
+      <c r="H104">
+        <v>21364.197151089014</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>21777.258991556613</v>
+      </c>
+      <c r="K104">
+        <v>21391.966415084156</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>46.365715702680234</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>488</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>513</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.95126705653021437</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>21652.637215836552</v>
+      </c>
+      <c r="W104">
+        <v>22003.474386029055</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-350.83717019250253</v>
+      </c>
+      <c r="Y104">
+        <v>-343.5129796428954</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>21586</v>
+      </c>
+      <c r="D105">
+        <v>21899.95</v>
+      </c>
+      <c r="E105">
+        <v>21000</v>
+      </c>
+      <c r="F105">
+        <v>21090</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>21329.983333333334</v>
+      </c>
+      <c r="H105">
+        <v>21347.090242211176</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>21804.523660099589</v>
+      </c>
+      <c r="K105">
+        <v>21304.862767287676</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>33.069912701034163</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>899.95000000000073</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.1000055558642146</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>21566.077644169389</v>
+      </c>
+      <c r="W105">
+        <v>21935.809616693568</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-369.73197252417958</v>
+      </c>
+      <c r="Y105">
+        <v>-348.75677821915224</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>21200</v>
+      </c>
+      <c r="D106">
+        <v>21299</v>
+      </c>
+      <c r="E106">
+        <v>20567.650000000001</v>
+      </c>
+      <c r="F106">
+        <v>20612</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>20826.216666666667</v>
+      </c>
+      <c r="H106">
+        <v>21086.653454438921</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>21692.185068966348</v>
+      </c>
+      <c r="K106">
+        <v>21141.037707890413</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>23.323174226440294</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>44.349999999998545</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>731.34999999999854</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>6.0641279824979327E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>21419.29646814333</v>
+      </c>
+      <c r="W106">
+        <v>21837.749645086638</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-418.45317694330879</v>
+      </c>
+      <c r="Y106">
+        <v>-362.69605796398355</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>21215.65</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>21019.600000000002</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>20933.350000000002</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>20847.050000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>20882</v>
+      </c>
+      <c r="D107">
+        <v>20882</v>
+      </c>
+      <c r="E107">
+        <v>20450</v>
+      </c>
+      <c r="F107">
+        <v>20500</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>20610.666666666668</v>
+      </c>
+      <c r="H107">
+        <v>20848.660060552793</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>21512.143942529383</v>
+      </c>
+      <c r="K107">
+        <v>20987.473772803656</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>21.469834242561351</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>432</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.11574074074074074</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>21277.866242275126</v>
+      </c>
+      <c r="W107">
+        <v>21738.657078783923</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-460.79083650879693</v>
+      </c>
+      <c r="Y107">
+        <v>-382.31501367294624</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>20832.75</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>20717</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>20666</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
